--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
   <si>
     <t>Signin</t>
   </si>
@@ -94,7 +94,7 @@
     <t xml:space="preserve">application search </t>
   </si>
   <si>
-    <t xml:space="preserve">IA_application creation </t>
+    <t>IA_app_auto</t>
   </si>
   <si>
     <t xml:space="preserve">Test connection for IA creation </t>
@@ -104,6 +104,66 @@
   </si>
   <si>
     <t>IA_APP</t>
+  </si>
+  <si>
+    <t>RDBMS_app_auto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test connection for RDBMS creation </t>
+  </si>
+  <si>
+    <t>RDBMS_AUTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RDBMS connection </t>
+  </si>
+  <si>
+    <t>MYSQL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Profile name </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> catergory tag </t>
+  </si>
+  <si>
+    <t>MYSQL_PROFILE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test MySQL connection </t>
+  </si>
+  <si>
+    <t>connection tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dname </t>
+  </si>
+  <si>
+    <t>localhost</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>root@123</t>
+  </si>
+  <si>
+    <t>p360v2</t>
+  </si>
+  <si>
+    <t>PostgreSQL</t>
+  </si>
+  <si>
+    <t>PostgreSQL_PROFILE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test postgreSQL connection </t>
+  </si>
+  <si>
+    <t>Secret@123</t>
+  </si>
+  <si>
+    <t>patient3sixty</t>
   </si>
 </sst>
 </file>
@@ -111,10 +171,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -151,6 +211,23 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -158,38 +235,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,6 +301,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -235,53 +332,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,13 +356,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,19 +506,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,151 +530,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,11 +564,35 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,30 +645,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -604,152 +664,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -777,16 +837,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1114,10 +1171,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1134,7 +1191,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1160,7 +1217,7 @@
       <c r="A4" s="5"/>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1208,7 +1265,7 @@
       <c r="H8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="13"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
@@ -1241,20 +1298,20 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" spans="1:9">
-      <c r="A12" s="9" t="s">
+    <row r="12" s="1" customFormat="1" spans="1:9">
+      <c r="A12" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I12" s="14"/>
+      <c r="I12" s="12"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
@@ -1270,16 +1327,141 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="10"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-    </row>
-    <row r="19" spans="5:5">
-      <c r="E19" s="12"/>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" spans="1:9">
+      <c r="A17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" s="13"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="15.75" spans="1:9">
+      <c r="A21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I21" s="12"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22">
+        <v>3306</v>
+      </c>
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="11"/>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="15.75" spans="1:9">
+      <c r="A27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I27" s="12"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28">
+        <v>3306</v>
+      </c>
+      <c r="C28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="59">
   <si>
     <t>Signin</t>
   </si>
@@ -106,6 +106,12 @@
     <t>IA_APP</t>
   </si>
   <si>
+    <t>IA_APP_edit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test connection of IA creationedit </t>
+  </si>
+  <si>
     <t>RDBMS_app_auto</t>
   </si>
   <si>
@@ -164,6 +170,27 @@
   </si>
   <si>
     <t>patient3sixty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RDBMS connection  edit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manage category </t>
+  </si>
+  <si>
+    <t>Automation category</t>
+  </si>
+  <si>
+    <t>desc added category</t>
+  </si>
+  <si>
+    <t>update category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automation category update </t>
+  </si>
+  <si>
+    <t xml:space="preserve">edited data </t>
   </si>
 </sst>
 </file>
@@ -171,10 +198,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -211,14 +238,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -227,7 +246,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -236,50 +275,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,14 +327,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -332,8 +335,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,7 +352,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,187 +395,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,43 +592,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,17 +637,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -659,20 +675,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -682,134 +709,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -844,6 +871,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1171,10 +1201,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1265,7 +1295,7 @@
       <c r="H8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="12"/>
+      <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
@@ -1311,7 +1341,7 @@
       <c r="D12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I12" s="12"/>
+      <c r="I12" s="13"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
@@ -1327,48 +1357,56 @@
         <v>29</v>
       </c>
     </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+    </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" spans="1:9">
       <c r="A17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I17" s="13"/>
+        <v>35</v>
+      </c>
+      <c r="I17" s="14"/>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="15.75" spans="1:9">
@@ -1385,35 +1423,35 @@
         <v>2</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I21" s="12"/>
+        <v>42</v>
+      </c>
+      <c r="I21" s="13"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B22">
         <v>3306</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
@@ -1421,10 +1459,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C26" s="11"/>
     </row>
@@ -1442,28 +1480,89 @@
         <v>2</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I27" s="12"/>
+        <v>42</v>
+      </c>
+      <c r="I27" s="13"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B28">
         <v>3306</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D28" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E28" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D22" r:id="rId1" display="root@123"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
